--- a/profit_ledger_export.xlsx
+++ b/profit_ledger_export.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1001"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>ts</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hour_slot</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
